--- a/Report/trials/plan/analysis.xlsx
+++ b/Report/trials/plan/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="14355" windowHeight="6345" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="14355" windowHeight="6345" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="N1" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="NCliques" sheetId="4" r:id="rId8"/>
     <sheet name="Intervalo Médio" sheetId="11" r:id="rId9"/>
     <sheet name="NCaracteres necessários" sheetId="13" r:id="rId10"/>
-    <sheet name="Plan1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -310,11 +309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518714880"/>
-        <c:axId val="557465600"/>
+        <c:axId val="76035584"/>
+        <c:axId val="75861952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="518714880"/>
+        <c:axId val="76035584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -323,7 +322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557465600"/>
+        <c:crossAx val="75861952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -331,7 +330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557465600"/>
+        <c:axId val="75861952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -343,7 +342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518714880"/>
+        <c:crossAx val="76035584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -527,11 +526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557766144"/>
-        <c:axId val="557467904"/>
+        <c:axId val="76037632"/>
+        <c:axId val="75864256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557766144"/>
+        <c:axId val="76037632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557467904"/>
+        <c:crossAx val="75864256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557467904"/>
+        <c:axId val="75864256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -560,7 +559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557766144"/>
+        <c:crossAx val="76037632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -720,11 +719,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557768192"/>
-        <c:axId val="557470208"/>
+        <c:axId val="42800640"/>
+        <c:axId val="76497472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557768192"/>
+        <c:axId val="42800640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557470208"/>
+        <c:crossAx val="76497472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557470208"/>
+        <c:axId val="76497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557768192"/>
+        <c:crossAx val="42800640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -912,11 +911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558769664"/>
-        <c:axId val="557472512"/>
+        <c:axId val="77273088"/>
+        <c:axId val="76499776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558769664"/>
+        <c:axId val="77273088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557472512"/>
+        <c:crossAx val="76499776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557472512"/>
+        <c:axId val="76499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558769664"/>
+        <c:crossAx val="77273088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1104,11 +1103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557305856"/>
-        <c:axId val="558580864"/>
+        <c:axId val="77185024"/>
+        <c:axId val="76502080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557305856"/>
+        <c:axId val="77185024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558580864"/>
+        <c:crossAx val="76502080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558580864"/>
+        <c:axId val="76502080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557305856"/>
+        <c:crossAx val="77185024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,11 +1295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80903168"/>
-        <c:axId val="77561152"/>
+        <c:axId val="77187072"/>
+        <c:axId val="76504384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80903168"/>
+        <c:axId val="77187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77561152"/>
+        <c:crossAx val="76504384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77561152"/>
+        <c:axId val="76504384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80903168"/>
+        <c:crossAx val="77187072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1934,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2012,18 +2011,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -2753,7 +2740,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2813,7 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
